--- a/test-files/adjacency-matrix-modifications/extra-data-random-cell-network-optimized-only-output.xlsx
+++ b/test-files/adjacency-matrix-modifications/extra-data-random-cell-network-optimized-only-output.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1060" yWindow="1360" windowWidth="25040" windowHeight="13620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="network_optimized_weights" sheetId="1" r:id="rId1"/>
@@ -420,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -470,7 +470,7 @@
         <v>-0.17566519889880838</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -484,8 +484,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:7">
-      <c r="G19">
+    <row r="14" spans="1:7">
+      <c r="G14">
         <v>0</v>
       </c>
     </row>
@@ -503,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
